--- a/ER DIAGRAM.xlsx
+++ b/ER DIAGRAM.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="176">
   <si>
     <t>SEASON</t>
   </si>
@@ -137,9 +137,6 @@
     <t>GREEN_BAR</t>
   </si>
   <si>
-    <t>char(6)</t>
-  </si>
-  <si>
     <t>CUSTOMER</t>
   </si>
   <si>
@@ -293,12 +290,6 @@
     <t>TTL_MSRP</t>
   </si>
   <si>
-    <t>OPEN_SSN</t>
-  </si>
-  <si>
-    <t>OPEN_YEAR</t>
-  </si>
-  <si>
     <t>varchar(4)</t>
   </si>
   <si>
@@ -366,9 +357,6 @@
   </si>
   <si>
     <t>CARTON_CTN</t>
-  </si>
-  <si>
-    <t>PK; FK</t>
   </si>
   <si>
     <t>IS_ECOM</t>
@@ -481,12 +469,6 @@
     <t>HFC</t>
   </si>
   <si>
-    <t>START_DATE</t>
-  </si>
-  <si>
-    <t>CXL_DATE</t>
-  </si>
-  <si>
     <t>10.40.45</t>
   </si>
   <si>
@@ -569,6 +551,12 @@
   </si>
   <si>
     <t>csv file name</t>
+  </si>
+  <si>
+    <t>START_SHIP</t>
+  </si>
+  <si>
+    <t>CXL_SHIP</t>
   </si>
 </sst>
 </file>
@@ -757,24 +745,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -810,6 +780,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1096,14 +1084,14 @@
   </sheetPr>
   <dimension ref="B2:T69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q69" sqref="Q69"/>
+    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="5" width="22.5703125" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" customWidth="1"/>
     <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
@@ -1113,7 +1101,7 @@
     <col min="12" max="12" width="19.140625" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" customWidth="1"/>
     <col min="14" max="14" width="15.85546875" customWidth="1"/>
-    <col min="15" max="15" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.140625" customWidth="1"/>
     <col min="17" max="17" width="17.5703125" customWidth="1"/>
     <col min="18" max="18" width="15.5703125" customWidth="1"/>
     <col min="19" max="19" width="24" bestFit="1" customWidth="1"/>
@@ -1121,76 +1109,76 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29"/>
+        <v>129</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
+        <v>129</v>
+      </c>
+      <c r="L2" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
       <c r="O2" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q2" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q2" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="E3" s="18"/>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="34" t="s">
+      <c r="H3" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q3" s="24" t="s">
         <v>10</v>
       </c>
       <c r="R3" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S3" s="24" t="s">
         <v>12</v>
@@ -1201,37 +1189,37 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="E4" s="18"/>
-      <c r="G4" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="36" t="s">
+      <c r="G4" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="36"/>
+      <c r="I4" s="30"/>
       <c r="J4" s="23" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q4" s="24" t="s">
         <v>11</v>
       </c>
       <c r="R4" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S4" s="24" t="s">
         <v>12</v>
@@ -1239,22 +1227,22 @@
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="12"/>
-      <c r="G5" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="37"/>
+      <c r="G5" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="31"/>
       <c r="J5" s="23" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>8</v>
@@ -1264,47 +1252,47 @@
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q5" s="22" t="s">
         <v>13</v>
       </c>
       <c r="R5" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S5" s="22"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="4"/>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="36"/>
+      <c r="I6" s="30"/>
       <c r="J6" s="23" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q6" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R6" s="21" t="s">
         <v>3</v>
@@ -1312,30 +1300,30 @@
       <c r="S6" s="21"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="36"/>
+      <c r="I7" s="30"/>
       <c r="J7" s="23" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q7" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R7" s="21" t="s">
         <v>3</v>
@@ -1343,27 +1331,27 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="G8" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" s="36" t="s">
+      <c r="G8" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="30" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>91</v>
+        <v>135</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="21" t="s">
         <v>27</v>
@@ -1374,33 +1362,33 @@
       <c r="S8" s="21"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
+      <c r="B9" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="36"/>
+      <c r="I9" s="30"/>
       <c r="J9" s="23" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="N9" s="10"/>
       <c r="O9" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q9" s="22" t="s">
         <v>28</v>
@@ -1412,7 +1400,7 @@
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>5</v>
@@ -1420,29 +1408,27 @@
       <c r="D10" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="36">
         <v>60.11</v>
       </c>
-      <c r="G10" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10" s="36" t="s">
+      <c r="G10" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="36"/>
+      <c r="I10" s="30"/>
       <c r="J10" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N10" s="10"/>
-      <c r="O10" s="11" t="s">
-        <v>145</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="O10" s="11"/>
       <c r="Q10" s="22" t="s">
         <v>29</v>
       </c>
@@ -1451,37 +1437,39 @@
       </c>
       <c r="S10" s="22"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="42">
+        <v>69</v>
+      </c>
+      <c r="E11" s="36">
         <v>60.11</v>
       </c>
-      <c r="G11" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="36"/>
+      <c r="G11" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="30"/>
       <c r="J11" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="N11" s="20"/>
-      <c r="O11" s="11"/>
+        <v>135</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="10"/>
+      <c r="O11" s="15" t="s">
+        <v>142</v>
+      </c>
       <c r="Q11" s="22" t="s">
         <v>30</v>
       </c>
@@ -1490,38 +1478,38 @@
       </c>
       <c r="S11" s="22"/>
     </row>
-    <row r="12" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="42">
+        <v>69</v>
+      </c>
+      <c r="E12" s="36">
         <v>60.11</v>
       </c>
-      <c r="G12" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="36"/>
+      <c r="G12" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="30"/>
       <c r="J12" s="23" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N12" s="10"/>
-      <c r="O12" s="15" t="s">
-        <v>146</v>
+        <v>43</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="Q12" s="22" t="s">
         <v>31</v>
@@ -1533,36 +1521,36 @@
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="42">
+        <v>69</v>
+      </c>
+      <c r="E13" s="36">
         <v>60.11</v>
       </c>
-      <c r="G13" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="36"/>
+      <c r="G13" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="30"/>
       <c r="J13" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="11" t="s">
-        <v>140</v>
+      <c r="N13" s="21"/>
+      <c r="O13" s="23" t="s">
+        <v>136</v>
       </c>
       <c r="Q13" s="22" t="s">
         <v>32</v>
@@ -1573,37 +1561,37 @@
       <c r="S13" s="22"/>
     </row>
     <row r="14" spans="2:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>56</v>
+      <c r="B14" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>55</v>
       </c>
       <c r="D14" s="21"/>
-      <c r="E14" s="42">
+      <c r="E14" s="36">
         <v>60.11</v>
       </c>
-      <c r="G14" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="I14" s="38" t="s">
+      <c r="G14" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="L14" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="M14" s="22" t="s">
+      <c r="J14" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="21"/>
-      <c r="O14" s="23" t="s">
-        <v>140</v>
+      <c r="N14" s="3"/>
+      <c r="O14" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="Q14" s="22" t="s">
         <v>33</v>
@@ -1614,35 +1602,35 @@
       <c r="S14" s="22"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="C15" s="38" t="s">
+      <c r="B15" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="32" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="21"/>
-      <c r="E15" s="42">
+      <c r="E15" s="36">
         <v>60.11</v>
       </c>
-      <c r="G15" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="H15" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="40"/>
-      <c r="J15" s="41" t="s">
-        <v>135</v>
+      <c r="G15" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="34"/>
+      <c r="J15" s="35" t="s">
+        <v>131</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q15" s="22" t="s">
         <v>34</v>
@@ -1654,106 +1642,108 @@
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="21"/>
-      <c r="E16" s="42">
+      <c r="E16" s="36">
         <v>60.11</v>
       </c>
-      <c r="G16" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="40"/>
-      <c r="J16" s="41" t="s">
-        <v>141</v>
+      <c r="G16" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="34"/>
+      <c r="J16" s="35" t="s">
+        <v>137</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
       <c r="L17" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
       <c r="L18" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="N18" s="3"/>
       <c r="O18" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q18" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
+        <v>136</v>
+      </c>
+      <c r="Q18" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
       <c r="T18" s="14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
       <c r="J19" s="14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N19" s="3"/>
+        <v>88</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>128</v>
+      </c>
       <c r="O19" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>35</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="S19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="T19" s="25" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
@@ -1761,37 +1751,37 @@
         <v>6</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>132</v>
+        <v>54</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T20" s="25" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
@@ -1799,37 +1789,29 @@
         <v>10</v>
       </c>
       <c r="H21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="Q21" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="R21" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O21" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="S21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="T21" s="25" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
@@ -1837,18 +1819,14 @@
         <v>11</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
+        <v>135</v>
+      </c>
       <c r="Q22" s="1" t="s">
         <v>8</v>
       </c>
@@ -1857,7 +1835,7 @@
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="25" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
@@ -1865,23 +1843,31 @@
         <v>13</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
+      </c>
+      <c r="L23" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T23" s="25" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
@@ -1889,150 +1875,152 @@
         <v>15</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" s="12"/>
-      <c r="L24" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="14" t="s">
-        <v>133</v>
+      <c r="L24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O24" s="41" t="s">
+        <v>138</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="25" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G25" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O25" s="26" t="s">
-        <v>142</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="O25" s="41"/>
       <c r="Q25" s="1" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="R25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="25" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G26" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="O26" s="26"/>
+        <v>101</v>
+      </c>
+      <c r="O26" s="41"/>
       <c r="Q26" s="1" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="R26" s="1" t="s">
         <v>2</v>
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="25" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G27" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="O27" s="26"/>
+        <v>101</v>
+      </c>
+      <c r="O27" s="41"/>
       <c r="Q27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="25" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G28" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="O28" s="26"/>
+        <v>101</v>
+      </c>
+      <c r="O28" s="41"/>
       <c r="Q28" s="1" t="s">
         <v>0</v>
       </c>
@@ -2041,182 +2029,172 @@
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="25" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="O29" s="26"/>
+        <v>101</v>
+      </c>
+      <c r="O29" s="41"/>
       <c r="Q29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="25" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="O30" s="26"/>
+        <v>101</v>
+      </c>
+      <c r="O30" s="41"/>
       <c r="Q30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R30" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="25" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L31" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N31" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="M31" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="O31" s="26"/>
+      <c r="O31" s="41"/>
       <c r="Q31" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>14</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="25" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G32" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="O32" s="26"/>
+        <v>101</v>
+      </c>
+      <c r="O32" s="41"/>
       <c r="Q32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="25" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G33" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="O33" s="26"/>
+        <v>140</v>
+      </c>
       <c r="Q33" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="R33" s="1" t="s">
         <v>14</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="25" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G34" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R34" s="3" t="s">
         <v>3</v>
@@ -2228,171 +2206,179 @@
     </row>
     <row r="35" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G35" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="19" t="s">
-        <v>144</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="L35" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="17"/>
       <c r="Q35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="25" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G36" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="L36" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="17"/>
+        <v>140</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O36" s="18"/>
       <c r="Q36" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R36" s="3" t="s">
         <v>2</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="25" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G37" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O37" s="18"/>
+        <v>140</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N37" s="1"/>
+      <c r="O37" s="4"/>
       <c r="Q37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R37" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="25" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="4"/>
       <c r="Q38" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="T38" s="11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G39" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N39" s="1"/>
-      <c r="O39" s="4"/>
+        <v>135</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N39" s="3"/>
+      <c r="O39" s="12"/>
       <c r="Q39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S39" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="R39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="T39" s="11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G40" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N40" s="3"/>
       <c r="O40" s="12"/>
       <c r="Q40" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="R40" s="3" t="s">
         <v>3</v>
@@ -2404,25 +2390,27 @@
     </row>
     <row r="41" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G41" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N41" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="O41" s="12"/>
       <c r="Q41" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="R41" s="1" t="s">
         <v>3</v>
@@ -2434,27 +2422,27 @@
     </row>
     <row r="42" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G42" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>19</v>
       </c>
       <c r="O42" s="12"/>
       <c r="Q42" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="R42" s="1" t="s">
         <v>3</v>
@@ -2466,27 +2454,17 @@
     </row>
     <row r="43" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G43" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O43" s="12"/>
+        <v>134</v>
+      </c>
       <c r="Q43" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="R43" s="1" t="s">
         <v>3</v>
@@ -2497,18 +2475,18 @@
       </c>
     </row>
     <row r="44" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G44" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="H44" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="I44" s="40"/>
-      <c r="J44" s="41" t="s">
-        <v>141</v>
+      <c r="G44" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="H44" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35" t="s">
+        <v>137</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="R44" s="1" t="s">
         <v>3</v>
@@ -2520,7 +2498,7 @@
     </row>
     <row r="45" spans="7:20" x14ac:dyDescent="0.25">
       <c r="Q45" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="R45" s="1" t="s">
         <v>3</v>
@@ -2532,7 +2510,7 @@
     </row>
     <row r="46" spans="7:20" x14ac:dyDescent="0.25">
       <c r="Q46" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="R46" s="1" t="s">
         <v>3</v>
@@ -2543,16 +2521,16 @@
       </c>
     </row>
     <row r="47" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G47" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
+      <c r="G47" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
       <c r="J47" s="14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="R47" s="1" t="s">
         <v>3</v>
@@ -2564,19 +2542,19 @@
     </row>
     <row r="48" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G48" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J48" s="26" t="s">
-        <v>142</v>
+      <c r="J48" s="41" t="s">
+        <v>138</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
@@ -2588,15 +2566,15 @@
     </row>
     <row r="49" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G49" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I49" s="1"/>
-      <c r="J49" s="26"/>
+      <c r="J49" s="41"/>
       <c r="Q49" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="R49" s="1" t="s">
         <v>3</v>
@@ -2608,7 +2586,7 @@
     </row>
     <row r="50" spans="7:20" x14ac:dyDescent="0.25">
       <c r="Q50" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="R50" s="1" t="s">
         <v>3</v>
@@ -2619,16 +2597,16 @@
       </c>
     </row>
     <row r="51" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G51" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
+      <c r="G51" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
       <c r="J51" s="14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="R51" s="1" t="s">
         <v>3</v>
@@ -2640,19 +2618,19 @@
     </row>
     <row r="52" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G52" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J52" s="26" t="s">
-        <v>143</v>
+      <c r="J52" s="41" t="s">
+        <v>139</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="R52" s="1" t="s">
         <v>3</v>
@@ -2664,17 +2642,17 @@
     </row>
     <row r="53" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G53" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J53" s="26"/>
+      <c r="J53" s="41"/>
       <c r="Q53" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="R53" s="1" t="s">
         <v>3</v>
@@ -2686,17 +2664,17 @@
     </row>
     <row r="54" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G54" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J54" s="26"/>
+      <c r="J54" s="41"/>
       <c r="Q54" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="R54" s="1" t="s">
         <v>3</v>
@@ -2708,17 +2686,17 @@
     </row>
     <row r="55" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G55" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J55" s="26"/>
+      <c r="J55" s="41"/>
       <c r="Q55" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="R55" s="1" t="s">
         <v>3</v>
@@ -2730,250 +2708,250 @@
     </row>
     <row r="56" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G56" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J56" s="26"/>
+      <c r="J56" s="41"/>
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
     </row>
     <row r="57" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G57" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J57" s="26"/>
+      <c r="J57" s="41"/>
     </row>
     <row r="58" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G58" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J58" s="26"/>
-      <c r="Q58" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="R58" s="30"/>
-      <c r="S58" s="30"/>
+      <c r="J58" s="41"/>
+      <c r="Q58" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="R58" s="42"/>
+      <c r="S58" s="42"/>
       <c r="T58" s="14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G59" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J59" s="26"/>
+      <c r="J59" s="41"/>
       <c r="Q59" s="2" t="s">
         <v>35</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="T59" s="43" t="s">
-        <v>152</v>
+        <v>69</v>
+      </c>
+      <c r="T59" s="37" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G60" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J60" s="26"/>
+      <c r="J60" s="41"/>
       <c r="Q60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="T60" s="43" t="s">
-        <v>152</v>
+        <v>69</v>
+      </c>
+      <c r="T60" s="37" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G61" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J61" s="26"/>
+      <c r="J61" s="41"/>
       <c r="Q61" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="T61" s="43" t="s">
-        <v>152</v>
+        <v>69</v>
+      </c>
+      <c r="T61" s="37" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G62" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J62" s="26"/>
+      <c r="J62" s="41"/>
       <c r="Q62" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="R62" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S62" s="6"/>
-      <c r="T62" s="43" t="s">
-        <v>152</v>
+      <c r="T62" s="37" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G63" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J63" s="26"/>
+      <c r="J63" s="41"/>
       <c r="Q63" s="1" t="s">
         <v>0</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="S63" s="1"/>
-      <c r="T63" s="43" t="s">
-        <v>179</v>
+      <c r="T63" s="37" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G64" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J64" s="26"/>
+      <c r="J64" s="41"/>
       <c r="Q64" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S64" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="R64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S64" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="T64" s="43" t="s">
-        <v>152</v>
+      <c r="T64" s="37" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G65" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J65" s="26"/>
+      <c r="J65" s="41"/>
     </row>
     <row r="66" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G66" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="26"/>
+      <c r="J66" s="41"/>
     </row>
     <row r="67" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G67" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J67" s="26"/>
+      <c r="J67" s="41"/>
     </row>
     <row r="68" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G68" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J68" s="26"/>
+      <c r="J68" s="41"/>
     </row>
     <row r="69" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G69" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H69" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J69" s="26"/>
+      <c r="J69" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2985,12 +2963,12 @@
     <mergeCell ref="Q18:S18"/>
     <mergeCell ref="G47:I47"/>
     <mergeCell ref="G19:I19"/>
-    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="L35:N35"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L23:N23"/>
     <mergeCell ref="J48:J49"/>
-    <mergeCell ref="O25:O33"/>
+    <mergeCell ref="O24:O32"/>
     <mergeCell ref="Q58:S58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ER DIAGRAM.xlsx
+++ b/ER DIAGRAM.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="180">
   <si>
     <t>SEASON</t>
   </si>
@@ -481,9 +481,6 @@
     <t>COMMENT</t>
   </si>
   <si>
-    <t>BAD; UPFRONT; OFFPRICE</t>
-  </si>
-  <si>
     <t>SHIPPED_DOLLAR</t>
   </si>
   <si>
@@ -557,6 +554,23 @@
   </si>
   <si>
     <t>CXL_SHIP</t>
+  </si>
+  <si>
+    <t>DEACTIVE; 
+COMPLETE; PARTIAL;
+ACTIVE; UNCONFIRMED</t>
+  </si>
+  <si>
+    <t>COMMENT_2</t>
+  </si>
+  <si>
+    <t>UPFRONT; OFFPRICE</t>
+  </si>
+  <si>
+    <t>RECVD</t>
+  </si>
+  <si>
+    <t>Glenda's sheet</t>
   </si>
 </sst>
 </file>
@@ -694,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -780,6 +794,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1084,8 +1110,8 @@
   </sheetPr>
   <dimension ref="B2:T69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,7 +1120,7 @@
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="5" width="22.5703125" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" customWidth="1"/>
-    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" customWidth="1"/>
     <col min="10" max="10" width="32.85546875" style="13" bestFit="1" customWidth="1"/>
@@ -1102,42 +1128,42 @@
     <col min="13" max="13" width="15.7109375" customWidth="1"/>
     <col min="14" max="14" width="15.85546875" customWidth="1"/>
     <col min="15" max="15" width="26.140625" customWidth="1"/>
-    <col min="17" max="17" width="17.5703125" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.5703125" customWidth="1"/>
     <col min="19" max="19" width="24" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="40"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44"/>
       <c r="J2" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
       <c r="O2" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -1149,7 +1175,9 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="18"/>
+      <c r="E3" s="12" t="s">
+        <v>179</v>
+      </c>
       <c r="G3" s="27" t="s">
         <v>6</v>
       </c>
@@ -1194,7 +1222,9 @@
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="12" t="s">
+        <v>179</v>
+      </c>
       <c r="G4" s="29" t="s">
         <v>48</v>
       </c>
@@ -1233,7 +1263,9 @@
         <v>2</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="12"/>
+      <c r="E5" s="12" t="s">
+        <v>179</v>
+      </c>
       <c r="G5" s="30" t="s">
         <v>49</v>
       </c>
@@ -1270,7 +1302,9 @@
         <v>3</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="12" t="s">
+        <v>179</v>
+      </c>
       <c r="G6" s="30" t="s">
         <v>0</v>
       </c>
@@ -1300,6 +1334,16 @@
       <c r="S6" s="21"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="11" t="s">
+        <v>141</v>
+      </c>
       <c r="G7" s="29" t="s">
         <v>8</v>
       </c>
@@ -1331,6 +1375,7 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E8" s="13"/>
       <c r="G8" s="30" t="s">
         <v>64</v>
       </c>
@@ -1362,14 +1407,6 @@
       <c r="S8" s="21"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="14" t="s">
-        <v>129</v>
-      </c>
       <c r="G9" s="30" t="s">
         <v>1</v>
       </c>
@@ -1399,17 +1436,13 @@
       <c r="S9" s="22"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="36">
-        <v>60.11</v>
+      <c r="B10" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>103</v>
@@ -1439,13 +1472,13 @@
     </row>
     <row r="11" spans="2:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="24" t="s">
-        <v>6</v>
+        <v>171</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="E11" s="36">
         <v>60.11</v>
@@ -1480,10 +1513,10 @@
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>69</v>
@@ -1521,10 +1554,10 @@
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>69</v>
@@ -1561,13 +1594,15 @@
       <c r="S13" s="22"/>
     </row>
     <row r="14" spans="2:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="21"/>
+      <c r="B14" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="E14" s="36">
         <v>60.11</v>
       </c>
@@ -1603,10 +1638,10 @@
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="36">
@@ -1641,11 +1676,11 @@
       <c r="S15" s="22"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>3</v>
+      <c r="B16" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>2</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="36">
@@ -1673,10 +1708,16 @@
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
+      <c r="B17" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="36">
+        <v>60.11</v>
+      </c>
       <c r="L17" s="3" t="s">
         <v>125</v>
       </c>
@@ -1703,21 +1744,25 @@
       <c r="O18" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="Q18" s="42" t="s">
+      <c r="Q18" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
       <c r="T18" s="14" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="G19" s="42" t="s">
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="G19" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
       <c r="J19" s="14" t="s">
         <v>129</v>
       </c>
@@ -1849,11 +1894,11 @@
       <c r="J23" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="L23" s="42" t="s">
+      <c r="L23" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
       <c r="O23" s="14" t="s">
         <v>129</v>
       </c>
@@ -1888,7 +1933,7 @@
       <c r="N24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O24" s="41" t="s">
+      <c r="O24" s="45" t="s">
         <v>138</v>
       </c>
       <c r="Q24" s="1" t="s">
@@ -1924,9 +1969,9 @@
       <c r="N25" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="O25" s="41"/>
+      <c r="O25" s="45"/>
       <c r="Q25" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R25" s="1" t="s">
         <v>2</v>
@@ -1956,9 +2001,9 @@
       <c r="N26" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="O26" s="41"/>
+      <c r="O26" s="45"/>
       <c r="Q26" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R26" s="1" t="s">
         <v>2</v>
@@ -1988,7 +2033,7 @@
       <c r="N27" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="O27" s="41"/>
+      <c r="O27" s="45"/>
       <c r="Q27" s="1" t="s">
         <v>65</v>
       </c>
@@ -2020,7 +2065,7 @@
       <c r="N28" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="O28" s="41"/>
+      <c r="O28" s="45"/>
       <c r="Q28" s="1" t="s">
         <v>0</v>
       </c>
@@ -2052,7 +2097,7 @@
       <c r="N29" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="O29" s="41"/>
+      <c r="O29" s="45"/>
       <c r="Q29" s="1" t="s">
         <v>39</v>
       </c>
@@ -2084,7 +2129,7 @@
       <c r="N30" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="O30" s="41"/>
+      <c r="O30" s="45"/>
       <c r="Q30" s="1" t="s">
         <v>44</v>
       </c>
@@ -2116,7 +2161,7 @@
       <c r="N31" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="O31" s="41"/>
+      <c r="O31" s="45"/>
       <c r="Q31" s="1" t="s">
         <v>148</v>
       </c>
@@ -2148,7 +2193,7 @@
       <c r="N32" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="O32" s="41"/>
+      <c r="O32" s="45"/>
       <c r="Q32" s="1" t="s">
         <v>45</v>
       </c>
@@ -2172,7 +2217,7 @@
         <v>140</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R33" s="1" t="s">
         <v>14</v>
@@ -2215,11 +2260,11 @@
       <c r="J35" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="L35" s="43" t="s">
+      <c r="L35" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
       <c r="O35" s="17"/>
       <c r="Q35" s="1" t="s">
         <v>47</v>
@@ -2294,7 +2339,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:20" ht="45" x14ac:dyDescent="0.25">
       <c r="G38" s="1" t="s">
         <v>80</v>
       </c>
@@ -2313,16 +2358,16 @@
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="4"/>
-      <c r="Q38" s="1" t="s">
+      <c r="Q38" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="R38" s="1" t="s">
+      <c r="R38" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="S38" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="T38" s="11" t="s">
+      <c r="S38" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="T38" s="23" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2345,14 +2390,14 @@
       </c>
       <c r="N39" s="3"/>
       <c r="O39" s="12"/>
-      <c r="Q39" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>72</v>
+      <c r="Q39" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="R39" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="S39" s="41" t="s">
+        <v>177</v>
       </c>
       <c r="T39" s="11" t="s">
         <v>137</v>
@@ -2377,15 +2422,17 @@
       </c>
       <c r="N40" s="3"/>
       <c r="O40" s="12"/>
-      <c r="Q40" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="R40" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S40" s="3"/>
-      <c r="T40" s="25">
-        <v>20.53</v>
+      <c r="Q40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T40" s="11" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="7:20" x14ac:dyDescent="0.25">
@@ -2409,13 +2456,13 @@
         <v>19</v>
       </c>
       <c r="O41" s="12"/>
-      <c r="Q41" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S41" s="1"/>
+      <c r="Q41" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="3"/>
       <c r="T41" s="25">
         <v>20.53</v>
       </c>
@@ -2442,7 +2489,7 @@
       </c>
       <c r="O42" s="12"/>
       <c r="Q42" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="R42" s="1" t="s">
         <v>3</v>
@@ -2464,7 +2511,7 @@
         <v>134</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="R43" s="1" t="s">
         <v>3</v>
@@ -2486,7 +2533,7 @@
         <v>137</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="R44" s="1" t="s">
         <v>3</v>
@@ -2498,7 +2545,7 @@
     </row>
     <row r="45" spans="7:20" x14ac:dyDescent="0.25">
       <c r="Q45" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R45" s="1" t="s">
         <v>3</v>
@@ -2510,7 +2557,7 @@
     </row>
     <row r="46" spans="7:20" x14ac:dyDescent="0.25">
       <c r="Q46" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="R46" s="1" t="s">
         <v>3</v>
@@ -2521,16 +2568,16 @@
       </c>
     </row>
     <row r="47" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G47" s="42" t="s">
+      <c r="G47" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
       <c r="J47" s="14" t="s">
         <v>129</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="R47" s="1" t="s">
         <v>3</v>
@@ -2550,16 +2597,16 @@
       <c r="I48" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J48" s="41" t="s">
+      <c r="J48" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S48" s="3"/>
+      <c r="Q48" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S48" s="1"/>
       <c r="T48" s="25">
         <v>20.53</v>
       </c>
@@ -2572,21 +2619,21 @@
         <v>62</v>
       </c>
       <c r="I49" s="1"/>
-      <c r="J49" s="41"/>
-      <c r="Q49" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S49" s="1"/>
+      <c r="J49" s="45"/>
+      <c r="Q49" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S49" s="3"/>
       <c r="T49" s="25">
         <v>20.53</v>
       </c>
     </row>
     <row r="50" spans="7:20" x14ac:dyDescent="0.25">
       <c r="Q50" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="R50" s="1" t="s">
         <v>3</v>
@@ -2597,16 +2644,16 @@
       </c>
     </row>
     <row r="51" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G51" s="42" t="s">
+      <c r="G51" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
       <c r="J51" s="14" t="s">
         <v>129</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="R51" s="1" t="s">
         <v>3</v>
@@ -2626,11 +2673,11 @@
       <c r="I52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J52" s="41" t="s">
+      <c r="J52" s="45" t="s">
         <v>139</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="R52" s="1" t="s">
         <v>3</v>
@@ -2650,9 +2697,9 @@
       <c r="I53" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J53" s="41"/>
+      <c r="J53" s="45"/>
       <c r="Q53" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="R53" s="1" t="s">
         <v>3</v>
@@ -2672,9 +2719,9 @@
       <c r="I54" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J54" s="41"/>
+      <c r="J54" s="45"/>
       <c r="Q54" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="R54" s="1" t="s">
         <v>3</v>
@@ -2694,9 +2741,9 @@
       <c r="I55" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J55" s="41"/>
+      <c r="J55" s="45"/>
       <c r="Q55" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="R55" s="1" t="s">
         <v>3</v>
@@ -2716,10 +2763,17 @@
       <c r="I56" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J56" s="41"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
+      <c r="J56" s="45"/>
+      <c r="Q56" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S56" s="1"/>
+      <c r="T56" s="25">
+        <v>20.53</v>
+      </c>
     </row>
     <row r="57" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G57" s="8" t="s">
@@ -2731,7 +2785,10 @@
       <c r="I57" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J57" s="41"/>
+      <c r="J57" s="45"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
     </row>
     <row r="58" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G58" s="8" t="s">
@@ -2743,15 +2800,7 @@
       <c r="I58" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J58" s="41"/>
-      <c r="Q58" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="R58" s="42"/>
-      <c r="S58" s="42"/>
-      <c r="T58" s="14" t="s">
-        <v>129</v>
-      </c>
+      <c r="J58" s="45"/>
     </row>
     <row r="59" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G59" s="8" t="s">
@@ -2763,18 +2812,14 @@
       <c r="I59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J59" s="41"/>
-      <c r="Q59" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R59" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="S59" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="T59" s="37" t="s">
-        <v>146</v>
+      <c r="J59" s="45"/>
+      <c r="Q59" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="R59" s="46"/>
+      <c r="S59" s="46"/>
+      <c r="T59" s="14" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="7:20" x14ac:dyDescent="0.25">
@@ -2787,12 +2832,12 @@
       <c r="I60" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J60" s="41"/>
+      <c r="J60" s="45"/>
       <c r="Q60" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S60" s="2" t="s">
         <v>69</v>
@@ -2811,12 +2856,12 @@
       <c r="I61" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J61" s="41"/>
+      <c r="J61" s="45"/>
       <c r="Q61" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S61" s="2" t="s">
         <v>69</v>
@@ -2835,14 +2880,16 @@
       <c r="I62" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J62" s="41"/>
-      <c r="Q62" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="R62" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="S62" s="6"/>
+      <c r="J62" s="45"/>
+      <c r="Q62" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="R62" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S62" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="T62" s="37" t="s">
         <v>146</v>
       </c>
@@ -2857,16 +2904,16 @@
       <c r="I63" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J63" s="41"/>
-      <c r="Q63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S63" s="1"/>
+      <c r="J63" s="45"/>
+      <c r="Q63" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="R63" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="S63" s="6"/>
       <c r="T63" s="37" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="7:20" x14ac:dyDescent="0.25">
@@ -2879,21 +2926,19 @@
       <c r="I64" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J64" s="41"/>
+      <c r="J64" s="45"/>
       <c r="Q64" s="1" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S64" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S64" s="1"/>
       <c r="T64" s="37" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="65" spans="7:10" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G65" s="8" t="s">
         <v>76</v>
       </c>
@@ -2903,9 +2948,21 @@
       <c r="I65" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J65" s="41"/>
-    </row>
-    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="J65" s="45"/>
+      <c r="Q65" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T65" s="37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G66" s="8" t="s">
         <v>77</v>
       </c>
@@ -2915,9 +2972,9 @@
       <c r="I66" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="41"/>
-    </row>
-    <row r="67" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="J66" s="45"/>
+    </row>
+    <row r="67" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G67" s="8" t="s">
         <v>78</v>
       </c>
@@ -2927,9 +2984,9 @@
       <c r="I67" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J67" s="41"/>
-    </row>
-    <row r="68" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="J67" s="45"/>
+    </row>
+    <row r="68" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G68" s="8" t="s">
         <v>79</v>
       </c>
@@ -2939,9 +2996,9 @@
       <c r="I68" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J68" s="41"/>
-    </row>
-    <row r="69" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="J68" s="45"/>
+    </row>
+    <row r="69" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G69" s="8" t="s">
         <v>80</v>
       </c>
@@ -2951,11 +3008,11 @@
       <c r="I69" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J69" s="41"/>
+      <c r="J69" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="J52:J69"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G51:I51"/>
@@ -2969,7 +3026,7 @@
     <mergeCell ref="L23:N23"/>
     <mergeCell ref="J48:J49"/>
     <mergeCell ref="O24:O32"/>
-    <mergeCell ref="Q58:S58"/>
+    <mergeCell ref="Q59:S59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="17" scale="87" orientation="landscape" r:id="rId1"/>

--- a/ER DIAGRAM.xlsx
+++ b/ER DIAGRAM.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="202">
   <si>
     <t>SEASON</t>
   </si>
@@ -469,9 +469,6 @@
   </si>
   <si>
     <t>RECEIVING</t>
-  </si>
-  <si>
-    <t>REC_NBR</t>
   </si>
   <si>
     <t>REC_DATE</t>
@@ -548,9 +545,6 @@
     <t>BUY_GROUP_SUB</t>
   </si>
   <si>
-    <t>***CHALLENGE: HOW TO DEAL WITH RARE CASE WHEN A GREEN_BAR/STYLE/COLOR NEEDS TO GET ATTACHED TO MULTIPLE HFCS?</t>
-  </si>
-  <si>
     <t>SOURCE_BUY_MAKER_ECOM.csv'</t>
   </si>
   <si>
@@ -561,17 +555,64 @@
     <t>SOURCE_STYLE_MASTER_SLV_AND_SIZE.csv</t>
   </si>
   <si>
-    <t>SOURCE_CONTAINER_RECVD.xlsx</t>
-  </si>
-  <si>
     <t>SOURCE_CUSTOMER.csv</t>
   </si>
   <si>
     <t>SOURCE_SIZE_RANGE_MASTER.csv</t>
   </si>
   <si>
+    <t>***delete once truly received</t>
+  </si>
+  <si>
+    <t>RESERVE</t>
+  </si>
+  <si>
+    <t>decimal(10,2)</t>
+  </si>
+  <si>
+    <t>decimal(21,2)</t>
+  </si>
+  <si>
+    <t>DIFF</t>
+  </si>
+  <si>
+    <t>SHORT_OVER</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">60.11;
+      <t xml:space="preserve">10.40.44
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'000000' indicates a temp close-out order</t>
+    </r>
+  </si>
+  <si>
+    <t>HFC_2</t>
+  </si>
+  <si>
+    <t>manual add in special case*</t>
+  </si>
+  <si>
+    <t>***SPECIAL CASE: one GREEN_BAR/STYLE/COLOR attaches to multiple HFC's</t>
+  </si>
+  <si>
+    <t>CTN_TO_COME</t>
+  </si>
+  <si>
+    <t>INVOICE_NBR</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SOURCE_RECEIVING_NEW.xlsx
 </t>
     </r>
     <r>
@@ -582,27 +623,80 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>CTRL_NBR = 1 is used to "fake" receiving***</t>
+      <t>1: FAKE***
+2: INV ADJ.</t>
     </r>
   </si>
   <si>
-    <t>***delete once truly received</t>
-  </si>
-  <si>
-    <t>RESERVE</t>
-  </si>
-  <si>
-    <t>decimal(10,2)</t>
-  </si>
-  <si>
-    <t>decimal(21,2)</t>
+    <t>SOURCE_RECEIVING_NEW.xlsx</t>
+  </si>
+  <si>
+    <t>REC_S1</t>
+  </si>
+  <si>
+    <t>REC_S2</t>
+  </si>
+  <si>
+    <t>REC_S3</t>
+  </si>
+  <si>
+    <t>REC_S4</t>
+  </si>
+  <si>
+    <t>REC_S5</t>
+  </si>
+  <si>
+    <t>REC_S6</t>
+  </si>
+  <si>
+    <t>REC_S7</t>
+  </si>
+  <si>
+    <t>REC_S8</t>
+  </si>
+  <si>
+    <t>***This table holds data different from 60.11 in that it takes inv adj. into consideration</t>
+  </si>
+  <si>
+    <r>
+      <t>auto-calculated
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>need SHORT_OVER table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>***ETA does not go with CONTAINER_NBR due to multiple "AIR" / "FEDEX"</t>
+  </si>
+  <si>
+    <t>SOURCE_SHORT-OVER.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,6 +753,32 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -757,7 +877,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -859,6 +979,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -868,6 +1011,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -876,9 +1022,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1165,8 +1308,8 @@
   </sheetPr>
   <dimension ref="B2:T69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,7 +1317,7 @@
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
@@ -1188,40 +1331,40 @@
     <col min="16" max="16" width="3.7109375" customWidth="1"/>
     <col min="17" max="17" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.5703125" customWidth="1"/>
-    <col min="19" max="19" width="24.5703125" customWidth="1"/>
-    <col min="20" max="20" width="16.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.28515625" customWidth="1"/>
+    <col min="20" max="20" width="25.85546875" style="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
       <c r="J2" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
       <c r="O2" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
       <c r="T2" s="35" t="s">
         <v>112</v>
       </c>
@@ -1237,7 +1380,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>6</v>
@@ -1287,7 +1430,7 @@
         <v>53</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>32</v>
@@ -1323,15 +1466,15 @@
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3"/>
+      <c r="B5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G5" s="22" t="s">
         <v>33</v>
@@ -1365,15 +1508,15 @@
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1"/>
+      <c r="B6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G6" s="22" t="s">
         <v>0</v>
@@ -1408,14 +1551,14 @@
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="8" t="s">
-        <v>176</v>
+      <c r="E7" s="28" t="s">
+        <v>189</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>8</v>
@@ -1440,18 +1583,27 @@
         <v>118</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R7" s="14" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="14"/>
       <c r="T7" s="36" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="E8" s="10"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="43" t="s">
+        <v>199</v>
+      </c>
       <c r="G8" s="22" t="s">
         <v>48</v>
       </c>
@@ -1475,17 +1627,27 @@
         <v>118</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R8" s="15" t="s">
         <v>3</v>
       </c>
       <c r="S8" s="15"/>
       <c r="T8" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="28" t="s">
+        <v>189</v>
+      </c>
       <c r="G9" s="22" t="s">
         <v>1</v>
       </c>
@@ -1500,32 +1662,30 @@
         <v>27</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N9" s="14"/>
       <c r="O9" s="16" t="s">
         <v>118</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R9" s="15" t="s">
         <v>3</v>
       </c>
       <c r="S9" s="15"/>
       <c r="T9" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="11" t="s">
-        <v>112</v>
-      </c>
+      <c r="B10" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="48"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="46"/>
       <c r="G10" s="21" t="s">
         <v>86</v>
       </c>
@@ -1540,36 +1700,28 @@
         <v>25</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N10" s="14"/>
       <c r="O10" s="16" t="s">
         <v>118</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R10" s="15" t="s">
         <v>3</v>
       </c>
       <c r="S10" s="15"/>
       <c r="T10" s="36" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>179</v>
-      </c>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="46"/>
       <c r="G11" s="22" t="s">
         <v>87</v>
       </c>
@@ -1584,36 +1736,24 @@
         <v>23</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N11" s="14"/>
       <c r="O11" s="16" t="s">
         <v>118</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R11" s="15" t="s">
         <v>3</v>
       </c>
       <c r="S11" s="15"/>
       <c r="T11" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="28">
-        <v>60.11</v>
-      </c>
       <c r="G12" s="22" t="s">
         <v>88</v>
       </c>
@@ -1635,28 +1775,24 @@
         <v>118</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R12" s="15" t="s">
         <v>3</v>
       </c>
       <c r="S12" s="15"/>
       <c r="T12" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="28">
-        <v>60.11</v>
+      <c r="B13" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="G13" s="24" t="s">
         <v>94</v>
@@ -1666,7 +1802,7 @@
       </c>
       <c r="I13" s="24"/>
       <c r="J13" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L13" s="14" t="s">
         <v>106</v>
@@ -1679,28 +1815,28 @@
         <v>118</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R13" s="15" t="s">
         <v>3</v>
       </c>
       <c r="S13" s="15"/>
       <c r="T13" s="36" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20" ht="30" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="28">
-        <v>60.11</v>
+        <v>7</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>188</v>
       </c>
       <c r="G14" s="24" t="s">
         <v>115</v>
@@ -1725,26 +1861,28 @@
         <v>118</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R14" s="15" t="s">
         <v>3</v>
       </c>
       <c r="S14" s="15"/>
       <c r="T14" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="24" t="s">
+      <c r="B15" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="28">
-        <v>60.11</v>
+      <c r="D15" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>189</v>
       </c>
       <c r="G15" s="24" t="s">
         <v>93</v>
@@ -1754,13 +1892,13 @@
       </c>
       <c r="I15" s="26"/>
       <c r="J15" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N15" s="14"/>
       <c r="O15" s="16" t="s">
@@ -1780,15 +1918,17 @@
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="28">
-        <v>60.11</v>
+      <c r="B16" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>189</v>
       </c>
       <c r="G16" s="24" t="s">
         <v>54</v>
@@ -1804,7 +1944,7 @@
         <v>109</v>
       </c>
       <c r="M16" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N16" s="14"/>
       <c r="O16" s="16" t="s">
@@ -1812,15 +1952,17 @@
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="28">
-        <v>60.11</v>
+      <c r="B17" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>189</v>
       </c>
       <c r="L17" s="14" t="s">
         <v>110</v>
@@ -1836,12 +1978,18 @@
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
+      <c r="B18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>189</v>
+      </c>
       <c r="L18" s="14" t="s">
         <v>15</v>
       </c>
@@ -1850,27 +1998,33 @@
       </c>
       <c r="N18" s="33"/>
       <c r="O18" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q18" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q18" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
       <c r="T18" s="35" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="2:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="G19" s="46" t="s">
+    <row r="19" spans="2:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
       <c r="J19" s="35" t="s">
         <v>112</v>
       </c>
@@ -1882,7 +2036,7 @@
       </c>
       <c r="N19" s="33"/>
       <c r="O19" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q19" s="17" t="s">
         <v>20</v>
@@ -1893,11 +2047,21 @@
       <c r="S19" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="T19" s="36" t="s">
-        <v>126</v>
+      <c r="T19" s="42" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="2:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="28" t="s">
+        <v>189</v>
+      </c>
       <c r="G20" s="2" t="s">
         <v>6</v>
       </c>
@@ -1918,7 +2082,7 @@
       </c>
       <c r="N20" s="33"/>
       <c r="O20" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q20" s="17" t="s">
         <v>10</v>
@@ -1934,6 +2098,16 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="44"/>
+      <c r="E21" s="28" t="s">
+        <v>189</v>
+      </c>
       <c r="G21" s="2" t="s">
         <v>10</v>
       </c>
@@ -1947,14 +2121,14 @@
         <v>117</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M21" s="15" t="s">
         <v>45</v>
       </c>
       <c r="N21" s="34"/>
       <c r="O21" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q21" s="17" t="s">
         <v>123</v>
@@ -1970,6 +2144,16 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="44"/>
+      <c r="E22" s="28" t="s">
+        <v>189</v>
+      </c>
       <c r="G22" s="2" t="s">
         <v>11</v>
       </c>
@@ -1983,14 +2167,14 @@
         <v>117</v>
       </c>
       <c r="L22" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M22" s="15" t="s">
         <v>45</v>
       </c>
       <c r="N22" s="34"/>
       <c r="O22" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q22" s="15" t="s">
         <v>8</v>
@@ -2004,6 +2188,16 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="44"/>
+      <c r="E23" s="28" t="s">
+        <v>189</v>
+      </c>
       <c r="G23" s="1" t="s">
         <v>12</v>
       </c>
@@ -2015,14 +2209,14 @@
         <v>117</v>
       </c>
       <c r="L23" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M23" s="24" t="s">
         <v>45</v>
       </c>
       <c r="N23" s="26"/>
       <c r="O23" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q23" s="15" t="s">
         <v>48</v>
@@ -2038,6 +2232,16 @@
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="44"/>
+      <c r="E24" s="28" t="s">
+        <v>189</v>
+      </c>
       <c r="G24" s="12" t="s">
         <v>13</v>
       </c>
@@ -2047,7 +2251,7 @@
       <c r="I24" s="12"/>
       <c r="J24" s="9"/>
       <c r="L24" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M24" s="24" t="s">
         <v>107</v>
@@ -2068,6 +2272,16 @@
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="44"/>
+      <c r="E25" s="28" t="s">
+        <v>189</v>
+      </c>
       <c r="G25" s="3" t="s">
         <v>114</v>
       </c>
@@ -2093,7 +2307,7 @@
         <v>119</v>
       </c>
       <c r="Q25" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R25" s="15" t="s">
         <v>2</v>
@@ -2104,6 +2318,16 @@
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="44"/>
+      <c r="E26" s="28" t="s">
+        <v>189</v>
+      </c>
       <c r="G26" s="3" t="s">
         <v>103</v>
       </c>
@@ -2119,7 +2343,7 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="Q26" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R26" s="15" t="s">
         <v>2</v>
@@ -2130,11 +2354,21 @@
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="44"/>
+      <c r="E27" s="28" t="s">
+        <v>189</v>
+      </c>
       <c r="G27" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="8" t="s">
@@ -2152,21 +2386,31 @@
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="44"/>
+      <c r="E28" s="28" t="s">
+        <v>189</v>
+      </c>
       <c r="G28" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="L28" s="45" t="s">
+      <c r="L28" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
       <c r="O28" s="11" t="s">
         <v>112</v>
       </c>
@@ -2182,11 +2426,17 @@
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
       <c r="G29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="8" t="s">
@@ -2201,14 +2451,14 @@
       <c r="N29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O29" s="44" t="s">
-        <v>178</v>
+      <c r="O29" s="54" t="s">
+        <v>175</v>
       </c>
       <c r="Q29" s="15" t="s">
         <v>23</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="S29" s="15"/>
       <c r="T29" s="36" t="s">
@@ -2216,11 +2466,17 @@
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
       <c r="G30" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="8" t="s">
@@ -2235,7 +2491,7 @@
       <c r="N30" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="O30" s="44"/>
+      <c r="O30" s="54"/>
       <c r="Q30" s="15" t="s">
         <v>28</v>
       </c>
@@ -2248,6 +2504,10 @@
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="45"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
       <c r="G31" s="1" t="s">
         <v>56</v>
       </c>
@@ -2267,12 +2527,12 @@
       <c r="N31" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="O31" s="44"/>
+      <c r="O31" s="54"/>
       <c r="Q31" s="15" t="s">
         <v>127</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="S31" s="15"/>
       <c r="T31" s="36" t="s">
@@ -2299,7 +2559,7 @@
       <c r="N32" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="O32" s="44"/>
+      <c r="O32" s="54"/>
       <c r="Q32" s="15" t="s">
         <v>29</v>
       </c>
@@ -2311,7 +2571,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" s="51"/>
+      <c r="D33" s="52"/>
       <c r="G33" s="1" t="s">
         <v>58</v>
       </c>
@@ -2331,19 +2596,31 @@
       <c r="N33" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="O33" s="44"/>
+      <c r="O33" s="54"/>
       <c r="Q33" s="15" t="s">
         <v>129</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="S33" s="15"/>
       <c r="T33" s="36" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>201</v>
+      </c>
       <c r="G34" s="1" t="s">
         <v>59</v>
       </c>
@@ -2363,7 +2640,7 @@
       <c r="N34" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="O34" s="44"/>
+      <c r="O34" s="54"/>
       <c r="Q34" s="15" t="s">
         <v>30</v>
       </c>
@@ -2375,7 +2652,19 @@
         <v>20.53</v>
       </c>
     </row>
-    <row r="35" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>201</v>
+      </c>
       <c r="G35" s="1" t="s">
         <v>60</v>
       </c>
@@ -2395,7 +2684,7 @@
       <c r="N35" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="O35" s="44"/>
+      <c r="O35" s="54"/>
       <c r="Q35" s="15" t="s">
         <v>31</v>
       </c>
@@ -2407,7 +2696,19 @@
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>201</v>
+      </c>
       <c r="G36" s="1" t="s">
         <v>61</v>
       </c>
@@ -2427,7 +2728,7 @@
       <c r="N36" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="O36" s="44"/>
+      <c r="O36" s="54"/>
       <c r="Q36" s="15" t="s">
         <v>36</v>
       </c>
@@ -2439,7 +2740,17 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="41" t="s">
+        <v>201</v>
+      </c>
       <c r="G37" s="1" t="s">
         <v>62</v>
       </c>
@@ -2459,7 +2770,7 @@
       <c r="N37" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="O37" s="44"/>
+      <c r="O37" s="54"/>
       <c r="Q37" s="15" t="s">
         <v>37</v>
       </c>
@@ -2471,7 +2782,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="7:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:20" ht="45" x14ac:dyDescent="0.25">
       <c r="G38" s="1" t="s">
         <v>63</v>
       </c>
@@ -2489,13 +2800,13 @@
         <v>42</v>
       </c>
       <c r="S38" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T38" s="37" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G39" s="1" t="s">
         <v>65</v>
       </c>
@@ -2507,24 +2818,24 @@
         <v>117</v>
       </c>
       <c r="Q39" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R39" s="31" t="s">
         <v>42</v>
       </c>
       <c r="S39" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T39" s="37" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G40" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="8" t="s">
@@ -2543,12 +2854,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G41" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="8" t="s">
@@ -2565,12 +2876,12 @@
         <v>20.53</v>
       </c>
     </row>
-    <row r="42" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G42" s="1" t="s">
         <v>68</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="8" t="s">
@@ -2587,12 +2898,12 @@
         <v>20.53</v>
       </c>
     </row>
-    <row r="43" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G43" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="8" t="s">
@@ -2609,7 +2920,7 @@
         <v>20.53</v>
       </c>
     </row>
-    <row r="44" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G44" s="24" t="s">
         <v>54</v>
       </c>
@@ -2631,7 +2942,7 @@
         <v>20.53</v>
       </c>
     </row>
-    <row r="45" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q45" s="15" t="s">
         <v>134</v>
       </c>
@@ -2643,7 +2954,7 @@
         <v>20.53</v>
       </c>
     </row>
-    <row r="46" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="Q46" s="15" t="s">
         <v>135</v>
       </c>
@@ -2655,12 +2966,12 @@
         <v>20.53</v>
       </c>
     </row>
-    <row r="47" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G47" s="45" t="s">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="G47" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
       <c r="J47" s="11" t="s">
         <v>112</v>
       </c>
@@ -2675,7 +2986,7 @@
         <v>20.53</v>
       </c>
     </row>
-    <row r="48" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G48" s="2" t="s">
         <v>48</v>
       </c>
@@ -2685,8 +2996,8 @@
       <c r="I48" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J48" s="44" t="s">
-        <v>177</v>
+      <c r="J48" s="54" t="s">
+        <v>174</v>
       </c>
       <c r="Q48" s="15" t="s">
         <v>137</v>
@@ -2707,7 +3018,7 @@
         <v>46</v>
       </c>
       <c r="I49" s="1"/>
-      <c r="J49" s="44"/>
+      <c r="J49" s="54"/>
       <c r="Q49" s="14" t="s">
         <v>138</v>
       </c>
@@ -2732,11 +3043,11 @@
       </c>
     </row>
     <row r="51" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G51" s="45" t="s">
+      <c r="G51" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="H51" s="45"/>
-      <c r="I51" s="45"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="55"/>
       <c r="J51" s="11" t="s">
         <v>112</v>
       </c>
@@ -2761,7 +3072,7 @@
       <c r="I52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J52" s="44" t="s">
+      <c r="J52" s="54" t="s">
         <v>120</v>
       </c>
       <c r="Q52" s="15" t="s">
@@ -2785,7 +3096,7 @@
       <c r="I53" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J53" s="44"/>
+      <c r="J53" s="54"/>
       <c r="Q53" s="15" t="s">
         <v>142</v>
       </c>
@@ -2807,7 +3118,7 @@
       <c r="I54" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J54" s="44"/>
+      <c r="J54" s="54"/>
       <c r="Q54" s="15" t="s">
         <v>143</v>
       </c>
@@ -2829,7 +3140,7 @@
       <c r="I55" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J55" s="44"/>
+      <c r="J55" s="54"/>
       <c r="Q55" s="15" t="s">
         <v>144</v>
       </c>
@@ -2851,7 +3162,7 @@
       <c r="I56" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J56" s="44"/>
+      <c r="J56" s="54"/>
       <c r="Q56" s="15" t="s">
         <v>145</v>
       </c>
@@ -2873,7 +3184,7 @@
       <c r="I57" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J57" s="44"/>
+      <c r="J57" s="54"/>
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
@@ -2888,7 +3199,7 @@
       <c r="I58" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="44"/>
+      <c r="J58" s="54"/>
     </row>
     <row r="59" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G59" s="7" t="s">
@@ -2900,12 +3211,12 @@
       <c r="I59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J59" s="44"/>
-      <c r="Q59" s="45" t="s">
+      <c r="J59" s="54"/>
+      <c r="Q59" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="R59" s="45"/>
-      <c r="S59" s="45"/>
+      <c r="R59" s="55"/>
+      <c r="S59" s="55"/>
       <c r="T59" s="35" t="s">
         <v>112</v>
       </c>
@@ -2920,7 +3231,7 @@
       <c r="I60" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J60" s="44"/>
+      <c r="J60" s="54"/>
       <c r="Q60" s="2" t="s">
         <v>20</v>
       </c>
@@ -2944,7 +3255,7 @@
       <c r="I61" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J61" s="44"/>
+      <c r="J61" s="54"/>
       <c r="Q61" s="2" t="s">
         <v>10</v>
       </c>
@@ -2968,7 +3279,7 @@
       <c r="I62" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J62" s="44"/>
+      <c r="J62" s="54"/>
       <c r="Q62" s="2" t="s">
         <v>123</v>
       </c>
@@ -2992,7 +3303,7 @@
       <c r="I63" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J63" s="44"/>
+      <c r="J63" s="54"/>
       <c r="Q63" s="5" t="s">
         <v>124</v>
       </c>
@@ -3014,7 +3325,7 @@
       <c r="I64" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J64" s="44"/>
+      <c r="J64" s="54"/>
       <c r="Q64" s="1" t="s">
         <v>0</v>
       </c>
@@ -3023,7 +3334,7 @@
       </c>
       <c r="S64" s="1"/>
       <c r="T64" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="7:20" x14ac:dyDescent="0.25">
@@ -3036,7 +3347,7 @@
       <c r="I65" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J65" s="44"/>
+      <c r="J65" s="54"/>
       <c r="Q65" s="1" t="s">
         <v>54</v>
       </c>
@@ -3060,7 +3371,17 @@
       <c r="I66" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J66" s="44"/>
+      <c r="J66" s="54"/>
+      <c r="Q66" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="R66" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S66" s="5"/>
+      <c r="T66" s="38" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="67" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G67" s="7" t="s">
@@ -3072,9 +3393,9 @@
       <c r="I67" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J67" s="44"/>
-    </row>
-    <row r="68" spans="7:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J67" s="54"/>
+    </row>
+    <row r="68" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G68" s="7" t="s">
         <v>62</v>
       </c>
@@ -3084,13 +3405,13 @@
       <c r="I68" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J68" s="44"/>
-      <c r="Q68" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="R68" s="47"/>
-      <c r="S68" s="47"/>
-      <c r="T68" s="47"/>
+      <c r="J68" s="54"/>
+      <c r="Q68" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="R68" s="53"/>
+      <c r="S68" s="53"/>
+      <c r="T68" s="53"/>
     </row>
     <row r="69" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G69" s="7" t="s">
@@ -3102,12 +3423,14 @@
       <c r="I69" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J69" s="44"/>
+      <c r="J69" s="54"/>
+      <c r="Q69" s="49"/>
+      <c r="R69" s="49"/>
+      <c r="S69" s="49"/>
+      <c r="T69" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="J52:J69"/>
+  <mergeCells count="17">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G51:I51"/>
     <mergeCell ref="Q2:S2"/>
@@ -3119,10 +3442,14 @@
     <mergeCell ref="L28:N28"/>
     <mergeCell ref="J48:J49"/>
     <mergeCell ref="O29:O37"/>
+    <mergeCell ref="Q69:T69"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="Q68:T68"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="J52:J69"/>
     <mergeCell ref="Q59:S59"/>
-    <mergeCell ref="Q68:T68"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
-  <pageSetup paperSize="17" scale="65" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="17" scale="58" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>